--- a/doc/DesignDB.xlsx
+++ b/doc/DesignDB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\TechOffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\Projects\TechOffice\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" firstSheet="18" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" firstSheet="23" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="1.Table_MucTin" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="154">
   <si>
     <t>Table mục tin</t>
   </si>
@@ -344,9 +344,6 @@
     <t>bit</t>
   </si>
   <si>
-    <t>nvarchar(20)</t>
-  </si>
-  <si>
     <t>UserId</t>
   </si>
   <si>
@@ -482,9 +479,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>ChucVu</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -501,6 +495,27 @@
   </si>
   <si>
     <t>Note: Khi edit hồ sơ công việc, nếu user có role là Lãnh đạo thì hiển thị thêm combox đánh giá công việc gồm 5 mức (1-&gt;5)</t>
+  </si>
+  <si>
+    <t>default is 0</t>
+  </si>
+  <si>
+    <t>ChucVuId</t>
+  </si>
+  <si>
+    <t>Ref ChucVu</t>
+  </si>
+  <si>
+    <t>default 0</t>
+  </si>
+  <si>
+    <t>1 Hồ sơ công việc có nhiều văn bản</t>
+  </si>
+  <si>
+    <t>1 Hồ sơ công việc có nhiều cơ quan phối hợp làm với nhau</t>
+  </si>
+  <si>
+    <t>1 Hồ sơ công việc có nhiều quá trình xử lý (vì phải đi qua nhiều bộ phận)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -605,7 +621,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,11 +910,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -1009,17 +1025,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -1072,10 +1088,10 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1083,10 +1099,10 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1094,10 +1110,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1105,7 +1121,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
@@ -1113,6 +1129,17 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,27 +1148,28 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
@@ -1149,16 +1177,19 @@
         <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1168,91 +1199,134 @@
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1312,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -1330,10 +1404,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1341,10 +1415,10 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1352,10 +1426,10 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1363,7 +1437,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>22</v>
@@ -1371,6 +1445,17 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,9 +1472,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1532,24 +1618,24 @@
       <c r="G13" s="1"/>
     </row>
     <row r="15" spans="2:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1565,21 +1651,21 @@
   <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1698,24 +1784,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F13"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1832,11 +1918,6 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1848,22 +1929,22 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1946,7 +2027,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -2022,21 +2103,21 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2106,7 +2187,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2180,22 +2261,22 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2311,22 +2392,22 @@
       <c r="G10" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C16" t="s">
@@ -2334,11 +2415,11 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
         <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2351,22 +2432,22 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2407,7 +2488,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2421,11 +2502,13 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -2433,23 +2516,29 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="5" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -2513,17 +2602,17 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2536,7 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2556,17 +2645,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2607,7 +2696,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -2621,7 +2710,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -2691,17 +2780,17 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2712,25 +2801,25 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G19"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -2794,28 +2883,30 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>13</v>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="D7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2823,11 +2914,13 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2835,7 +2928,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
@@ -2845,39 +2938,51 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2889,22 +2994,22 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -3021,42 +3126,42 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
-        <v>100</v>
+      <c r="B18" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
-        <v>115</v>
+      <c r="B19" s="9" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3068,23 +3173,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -3134,12 +3239,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -3152,12 +3257,12 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
@@ -3170,26 +3275,26 @@
         <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -3202,7 +3307,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -3221,7 +3326,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
@@ -3271,29 +3376,29 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3305,22 +3410,22 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -3361,7 +3466,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -3374,12 +3479,12 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -3392,7 +3497,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -3447,26 +3552,31 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+    </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3478,22 +3588,22 @@
   <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -3572,7 +3682,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5" t="s">
@@ -3584,7 +3694,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -3595,7 +3705,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -3650,26 +3760,31 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3681,22 +3796,22 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -3737,7 +3852,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -3775,7 +3890,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="5" t="s">
@@ -3784,35 +3899,37 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -3867,26 +3984,31 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3897,23 +4019,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -3954,7 +4076,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>29</v>
@@ -3967,7 +4089,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -4075,8 +4197,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -4222,10 +4344,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
@@ -4339,12 +4461,12 @@
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4512,16 +4634,16 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -4652,16 +4774,16 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -4715,7 +4837,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
@@ -4775,14 +4897,14 @@
   <dimension ref="B2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
@@ -4944,11 +5066,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
